--- a/Unit_test_plan.xlsx
+++ b/Unit_test_plan.xlsx
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -476,6 +476,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
@@ -490,6 +493,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -504,6 +510,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -518,6 +527,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -532,6 +544,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -546,6 +561,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>14</v>
       </c>
